--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt2b-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt2b-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.062226</v>
+        <v>1.8088715</v>
       </c>
       <c r="H2">
-        <v>4.124452</v>
+        <v>3.617743</v>
       </c>
       <c r="I2">
-        <v>0.2462863689641845</v>
+        <v>0.2086975408033734</v>
       </c>
       <c r="J2">
-        <v>0.1889627690219504</v>
+        <v>0.156781683894231</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.6320075</v>
+        <v>30.801072</v>
       </c>
       <c r="N2">
-        <v>67.264015</v>
+        <v>61.602144</v>
       </c>
       <c r="O2">
-        <v>0.3908110491225105</v>
+        <v>0.5373480691764108</v>
       </c>
       <c r="P2">
-        <v>0.3281482467916435</v>
+        <v>0.485871843331092</v>
       </c>
       <c r="Q2">
-        <v>69.35680029869499</v>
+        <v>55.71518131024799</v>
       </c>
       <c r="R2">
-        <v>277.42720119478</v>
+        <v>222.860725240992</v>
       </c>
       <c r="S2">
-        <v>0.09625143423946664</v>
+        <v>0.1121432205925579</v>
       </c>
       <c r="T2">
-        <v>0.0620078013634473</v>
+        <v>0.0761758057542426</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.062226</v>
+        <v>1.8088715</v>
       </c>
       <c r="H3">
-        <v>4.124452</v>
+        <v>3.617743</v>
       </c>
       <c r="I3">
-        <v>0.2462863689641845</v>
+        <v>0.2086975408033734</v>
       </c>
       <c r="J3">
-        <v>0.1889627690219504</v>
+        <v>0.156781683894231</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>36.045639</v>
       </c>
       <c r="O3">
-        <v>0.1396193194224409</v>
+        <v>0.2096145064786482</v>
       </c>
       <c r="P3">
-        <v>0.1758490515669409</v>
+        <v>0.2843011610923331</v>
       </c>
       <c r="Q3">
-        <v>24.778084644138</v>
+        <v>21.7339763621295</v>
       </c>
       <c r="R3">
-        <v>148.668507864828</v>
+        <v>130.403858172777</v>
       </c>
       <c r="S3">
-        <v>0.0343863352178036</v>
+        <v>0.04374603201880667</v>
       </c>
       <c r="T3">
-        <v>0.0332289237139729</v>
+        <v>0.04457321476914101</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.062226</v>
+        <v>1.8088715</v>
       </c>
       <c r="H4">
-        <v>4.124452</v>
+        <v>3.617743</v>
       </c>
       <c r="I4">
-        <v>0.2462863689641845</v>
+        <v>0.2086975408033734</v>
       </c>
       <c r="J4">
-        <v>0.1889627690219504</v>
+        <v>0.156781683894231</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.122567</v>
+        <v>0.1305583333333333</v>
       </c>
       <c r="N4">
-        <v>0.367701</v>
+        <v>0.391675</v>
       </c>
       <c r="O4">
-        <v>0.001424254495001488</v>
+        <v>0.002277689176907768</v>
       </c>
       <c r="P4">
-        <v>0.001793833426290924</v>
+        <v>0.003089240761436898</v>
       </c>
       <c r="Q4">
-        <v>0.252760854142</v>
+        <v>0.2361632482541667</v>
       </c>
       <c r="R4">
-        <v>1.516565124852</v>
+        <v>1.416979489525</v>
       </c>
       <c r="S4">
-        <v>0.0003507744680548346</v>
+        <v>0.0004753481299351109</v>
       </c>
       <c r="T4">
-        <v>0.0003389677313960657</v>
+        <v>0.0004843363685327733</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.062226</v>
+        <v>1.8088715</v>
       </c>
       <c r="H5">
-        <v>4.124452</v>
+        <v>3.617743</v>
       </c>
       <c r="I5">
-        <v>0.2462863689641845</v>
+        <v>0.2086975408033734</v>
       </c>
       <c r="J5">
-        <v>0.1889627690219504</v>
+        <v>0.156781683894231</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,95 +747,95 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.558276</v>
+        <v>14.373679</v>
       </c>
       <c r="N5">
-        <v>39.116552</v>
+        <v>28.747358</v>
       </c>
       <c r="O5">
-        <v>0.2272713088146052</v>
+        <v>0.2507597351680332</v>
       </c>
       <c r="P5">
-        <v>0.1908305348607893</v>
+        <v>0.2267377548151379</v>
       </c>
       <c r="Q5">
-        <v>40.333585282376</v>
+        <v>26.0001382932485</v>
       </c>
       <c r="R5">
-        <v>161.334341129504</v>
+        <v>104.000553172994</v>
       </c>
       <c r="S5">
-        <v>0.05597382541768696</v>
+        <v>0.05233294006207373</v>
       </c>
       <c r="T5">
-        <v>0.03605986628123459</v>
+        <v>0.0355483270023146</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.087808666666667</v>
+      </c>
+      <c r="H6">
+        <v>3.263426</v>
+      </c>
+      <c r="I6">
+        <v>0.1255053184252889</v>
+      </c>
+      <c r="J6">
+        <v>0.141426691598661</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>2.062226</v>
-      </c>
-      <c r="H6">
-        <v>4.124452</v>
-      </c>
-      <c r="I6">
-        <v>0.2462863689641845</v>
-      </c>
-      <c r="J6">
-        <v>0.1889627690219504</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.59650833333333</v>
+        <v>30.801072</v>
       </c>
       <c r="N6">
-        <v>61.789525</v>
+        <v>61.602144</v>
       </c>
       <c r="O6">
-        <v>0.2393357883858265</v>
+        <v>0.5373480691764108</v>
       </c>
       <c r="P6">
-        <v>0.3014408863169769</v>
+        <v>0.485871843331092</v>
       </c>
       <c r="Q6">
-        <v>42.47465499421666</v>
+        <v>33.505673064224</v>
       </c>
       <c r="R6">
-        <v>254.8479299653</v>
+        <v>201.034038385344</v>
       </c>
       <c r="S6">
-        <v>0.05894514228472564</v>
+        <v>0.06744004052719958</v>
       </c>
       <c r="T6">
-        <v>0.0569611045748869</v>
+        <v>0.06871524734325929</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.062226</v>
+        <v>1.087808666666667</v>
       </c>
       <c r="H7">
-        <v>4.124452</v>
+        <v>3.263426</v>
       </c>
       <c r="I7">
-        <v>0.2462863689641845</v>
+        <v>0.1255053184252889</v>
       </c>
       <c r="J7">
-        <v>0.1889627690219504</v>
+        <v>0.141426691598661</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1323796666666666</v>
+        <v>12.015213</v>
       </c>
       <c r="N7">
-        <v>0.397139</v>
+        <v>36.045639</v>
       </c>
       <c r="O7">
-        <v>0.001538279759615545</v>
+        <v>0.2096145064786482</v>
       </c>
       <c r="P7">
-        <v>0.001937447037358482</v>
+        <v>0.2843011610923331</v>
       </c>
       <c r="Q7">
-        <v>0.2729967904713333</v>
+        <v>13.070252833246</v>
       </c>
       <c r="R7">
-        <v>1.637980742828</v>
+        <v>117.632275499214</v>
       </c>
       <c r="S7">
-        <v>0.0003788573364468112</v>
+        <v>0.02630773538216252</v>
       </c>
       <c r="T7">
-        <v>0.0003661053570126329</v>
+        <v>0.04020777263094664</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>3.263426</v>
       </c>
       <c r="I8">
-        <v>0.1299142027309831</v>
+        <v>0.1255053184252889</v>
       </c>
       <c r="J8">
-        <v>0.1495146539366266</v>
+        <v>0.141426691598661</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>33.6320075</v>
+        <v>0.1305583333333333</v>
       </c>
       <c r="N8">
-        <v>67.264015</v>
+        <v>0.391675</v>
       </c>
       <c r="O8">
-        <v>0.3908110491225105</v>
+        <v>0.002277689176907768</v>
       </c>
       <c r="P8">
-        <v>0.3281482467916435</v>
+        <v>0.003089240761436898</v>
       </c>
       <c r="Q8">
-        <v>36.58518923589833</v>
+        <v>0.1420224865055555</v>
       </c>
       <c r="R8">
-        <v>219.51113541539</v>
+        <v>1.27820237855</v>
       </c>
       <c r="S8">
-        <v>0.05077190586521001</v>
+        <v>0.0002858621054216435</v>
       </c>
       <c r="T8">
-        <v>0.04906297155896332</v>
+        <v>0.0004369011004417489</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>3.263426</v>
       </c>
       <c r="I9">
-        <v>0.1299142027309831</v>
+        <v>0.1255053184252889</v>
       </c>
       <c r="J9">
-        <v>0.1495146539366266</v>
+        <v>0.141426691598661</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.015213</v>
+        <v>14.373679</v>
       </c>
       <c r="N9">
-        <v>36.045639</v>
+        <v>28.747358</v>
       </c>
       <c r="O9">
-        <v>0.1396193194224409</v>
+        <v>0.2507597351680332</v>
       </c>
       <c r="P9">
-        <v>0.1758490515669409</v>
+        <v>0.2267377548151379</v>
       </c>
       <c r="Q9">
-        <v>13.070252833246</v>
+        <v>15.63581258808467</v>
       </c>
       <c r="R9">
-        <v>117.632275499214</v>
+        <v>93.81487552850801</v>
       </c>
       <c r="S9">
-        <v>0.01813853256860886</v>
+        <v>0.03147168041050512</v>
       </c>
       <c r="T9">
-        <v>0.02629201009011518</v>
+        <v>0.03206677052401331</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,61 +1039,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.087808666666667</v>
+        <v>1.03075</v>
       </c>
       <c r="H10">
-        <v>3.263426</v>
+        <v>3.09225</v>
       </c>
       <c r="I10">
-        <v>0.1299142027309831</v>
+        <v>0.1189222065708245</v>
       </c>
       <c r="J10">
-        <v>0.1495146539366266</v>
+        <v>0.1340084583183316</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.122567</v>
+        <v>30.801072</v>
       </c>
       <c r="N10">
-        <v>0.367701</v>
+        <v>61.602144</v>
       </c>
       <c r="O10">
-        <v>0.001424254495001488</v>
+        <v>0.5373480691764108</v>
       </c>
       <c r="P10">
-        <v>0.001793833426290924</v>
+        <v>0.485871843331092</v>
       </c>
       <c r="Q10">
-        <v>0.1333294448473333</v>
+        <v>31.748204964</v>
       </c>
       <c r="R10">
-        <v>1.199965003626</v>
+        <v>190.489229784</v>
       </c>
       <c r="S10">
-        <v>0.0001850308872041372</v>
+        <v>0.06390261808303081</v>
       </c>
       <c r="T10">
-        <v>0.0002682043839518407</v>
+        <v>0.06511093666508556</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.087808666666667</v>
+        <v>1.03075</v>
       </c>
       <c r="H11">
-        <v>3.263426</v>
+        <v>3.09225</v>
       </c>
       <c r="I11">
-        <v>0.1299142027309831</v>
+        <v>0.1189222065708245</v>
       </c>
       <c r="J11">
-        <v>0.1495146539366266</v>
+        <v>0.1340084583183316</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.558276</v>
+        <v>12.015213</v>
       </c>
       <c r="N11">
-        <v>39.116552</v>
+        <v>36.045639</v>
       </c>
       <c r="O11">
-        <v>0.2272713088146052</v>
+        <v>0.2096145064786482</v>
       </c>
       <c r="P11">
-        <v>0.1908305348607893</v>
+        <v>0.2843011610923331</v>
       </c>
       <c r="Q11">
-        <v>21.27566213785867</v>
+        <v>12.38468079975</v>
       </c>
       <c r="R11">
-        <v>127.653972827152</v>
+        <v>111.46212719775</v>
       </c>
       <c r="S11">
-        <v>0.02952577088827647</v>
+        <v>0.02492781963969523</v>
       </c>
       <c r="T11">
-        <v>0.02853196138025228</v>
+        <v>0.03809876029609519</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.087808666666667</v>
+        <v>1.03075</v>
       </c>
       <c r="H12">
-        <v>3.263426</v>
+        <v>3.09225</v>
       </c>
       <c r="I12">
-        <v>0.1299142027309831</v>
+        <v>0.1189222065708245</v>
       </c>
       <c r="J12">
-        <v>0.1495146539366266</v>
+        <v>0.1340084583183316</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>20.59650833333333</v>
+        <v>0.1305583333333333</v>
       </c>
       <c r="N12">
-        <v>61.789525</v>
+        <v>0.391675</v>
       </c>
       <c r="O12">
-        <v>0.2393357883858265</v>
+        <v>0.002277689176907768</v>
       </c>
       <c r="P12">
-        <v>0.3014408863169769</v>
+        <v>0.003089240761436898</v>
       </c>
       <c r="Q12">
-        <v>22.40506026807222</v>
+        <v>0.1345730020833333</v>
       </c>
       <c r="R12">
-        <v>201.64554241265</v>
+        <v>1.21115701875</v>
       </c>
       <c r="S12">
-        <v>0.03109311813313592</v>
+        <v>0.0002708678228003568</v>
       </c>
       <c r="T12">
-        <v>0.0450698298000328</v>
+        <v>0.0004139843918143074</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.087808666666667</v>
+        <v>1.03075</v>
       </c>
       <c r="H13">
-        <v>3.263426</v>
+        <v>3.09225</v>
       </c>
       <c r="I13">
-        <v>0.1299142027309831</v>
+        <v>0.1189222065708245</v>
       </c>
       <c r="J13">
-        <v>0.1495146539366266</v>
+        <v>0.1340084583183316</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1323796666666666</v>
+        <v>14.373679</v>
       </c>
       <c r="N13">
-        <v>0.397139</v>
+        <v>28.747358</v>
       </c>
       <c r="O13">
-        <v>0.001538279759615545</v>
+        <v>0.2507597351680332</v>
       </c>
       <c r="P13">
-        <v>0.001937447037358482</v>
+        <v>0.2267377548151379</v>
       </c>
       <c r="Q13">
-        <v>0.1440037486904444</v>
+        <v>14.81566962925</v>
       </c>
       <c r="R13">
-        <v>1.296033738214</v>
+        <v>88.8940177755</v>
       </c>
       <c r="S13">
-        <v>0.0001998443885476619</v>
+        <v>0.02982090102529809</v>
       </c>
       <c r="T13">
-        <v>0.0002896767233111959</v>
+        <v>0.03038477696533648</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.302230333333333</v>
+        <v>1.118385</v>
       </c>
       <c r="H14">
-        <v>3.906691</v>
+        <v>2.23677</v>
       </c>
       <c r="I14">
-        <v>0.1555220331581923</v>
+        <v>0.1290330458362469</v>
       </c>
       <c r="J14">
-        <v>0.1789859959754975</v>
+        <v>0.09693462666753803</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,33 +1305,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>33.6320075</v>
+        <v>30.801072</v>
       </c>
       <c r="N14">
-        <v>67.264015</v>
+        <v>61.602144</v>
       </c>
       <c r="O14">
-        <v>0.3908110491225105</v>
+        <v>0.5373480691764108</v>
       </c>
       <c r="P14">
-        <v>0.3281482467916435</v>
+        <v>0.485871843331092</v>
       </c>
       <c r="Q14">
-        <v>43.79662033739417</v>
+        <v>34.44745690872</v>
       </c>
       <c r="R14">
-        <v>262.779722024365</v>
+        <v>137.78982763488</v>
       </c>
       <c r="S14">
-        <v>0.060779728940219</v>
+        <v>0.0693356580400586</v>
       </c>
       <c r="T14">
-        <v>0.05873394077961566</v>
+        <v>0.04709780574156793</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.302230333333333</v>
+        <v>1.118385</v>
       </c>
       <c r="H15">
-        <v>3.906691</v>
+        <v>2.23677</v>
       </c>
       <c r="I15">
-        <v>0.1555220331581923</v>
+        <v>0.1290330458362469</v>
       </c>
       <c r="J15">
-        <v>0.1789859959754975</v>
+        <v>0.09693462666753803</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,27 +1373,27 @@
         <v>36.045639</v>
       </c>
       <c r="O15">
-        <v>0.1396193194224409</v>
+        <v>0.2096145064786482</v>
       </c>
       <c r="P15">
-        <v>0.1758490515669409</v>
+        <v>0.2843011610923331</v>
       </c>
       <c r="Q15">
-        <v>15.646574830061</v>
+        <v>13.437633991005</v>
       </c>
       <c r="R15">
-        <v>140.819173470549</v>
+        <v>80.62580394603</v>
       </c>
       <c r="S15">
-        <v>0.02171388042474109</v>
+        <v>0.0270471982224017</v>
       </c>
       <c r="T15">
-        <v>0.03147451763605554</v>
+        <v>0.0275586269116329</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.302230333333333</v>
+        <v>1.118385</v>
       </c>
       <c r="H16">
-        <v>3.906691</v>
+        <v>2.23677</v>
       </c>
       <c r="I16">
-        <v>0.1555220331581923</v>
+        <v>0.1290330458362469</v>
       </c>
       <c r="J16">
-        <v>0.1789859959754975</v>
+        <v>0.09693462666753803</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,33 +1429,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.122567</v>
+        <v>0.1305583333333333</v>
       </c>
       <c r="N16">
-        <v>0.367701</v>
+        <v>0.391675</v>
       </c>
       <c r="O16">
-        <v>0.001424254495001488</v>
+        <v>0.002277689176907768</v>
       </c>
       <c r="P16">
-        <v>0.001793833426290924</v>
+        <v>0.003089240761436898</v>
       </c>
       <c r="Q16">
-        <v>0.1596104652656667</v>
+        <v>0.146014481625</v>
       </c>
       <c r="R16">
-        <v>1.436494187391</v>
+        <v>0.8760868897499999</v>
       </c>
       <c r="S16">
-        <v>0.0002215029547973258</v>
+        <v>0.0002938971719646636</v>
       </c>
       <c r="T16">
-        <v>0.0003210710624188201</v>
+        <v>0.0002994543998960267</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.302230333333333</v>
+        <v>1.118385</v>
       </c>
       <c r="H17">
-        <v>3.906691</v>
+        <v>2.23677</v>
       </c>
       <c r="I17">
-        <v>0.1555220331581923</v>
+        <v>0.1290330458362469</v>
       </c>
       <c r="J17">
-        <v>0.1789859959754975</v>
+        <v>0.09693462666753803</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.558276</v>
+        <v>14.373679</v>
       </c>
       <c r="N17">
-        <v>39.116552</v>
+        <v>28.747358</v>
       </c>
       <c r="O17">
-        <v>0.2272713088146052</v>
+        <v>0.2507597351680332</v>
       </c>
       <c r="P17">
-        <v>0.1908305348607893</v>
+        <v>0.2267377548151379</v>
       </c>
       <c r="Q17">
-        <v>25.46938027490533</v>
+        <v>16.075306988415</v>
       </c>
       <c r="R17">
-        <v>152.816281649432</v>
+        <v>64.30122795366</v>
       </c>
       <c r="S17">
-        <v>0.03534569602537079</v>
+        <v>0.03235629240182198</v>
       </c>
       <c r="T17">
-        <v>0.03415599334459526</v>
+        <v>0.02197873961444116</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.302230333333333</v>
+        <v>2.430891333333333</v>
       </c>
       <c r="H18">
-        <v>3.906691</v>
+        <v>7.292674</v>
       </c>
       <c r="I18">
-        <v>0.1555220331581923</v>
+        <v>0.2804627322763945</v>
       </c>
       <c r="J18">
-        <v>0.1789859959754975</v>
+        <v>0.3160417171180145</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>20.59650833333333</v>
+        <v>30.801072</v>
       </c>
       <c r="N18">
-        <v>61.789525</v>
+        <v>61.602144</v>
       </c>
       <c r="O18">
-        <v>0.2393357883858265</v>
+        <v>0.5373480691764108</v>
       </c>
       <c r="P18">
-        <v>0.3014408863169769</v>
+        <v>0.485871843331092</v>
       </c>
       <c r="Q18">
-        <v>26.82139791241945</v>
+        <v>74.874058982176</v>
       </c>
       <c r="R18">
-        <v>241.392581211775</v>
+        <v>449.244353893056</v>
       </c>
       <c r="S18">
-        <v>0.03722198841728261</v>
+        <v>0.1507061076646612</v>
       </c>
       <c r="T18">
-        <v>0.05395369726518081</v>
+        <v>0.1535557716656532</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,51 +1597,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.302230333333333</v>
+        <v>2.430891333333333</v>
       </c>
       <c r="H19">
-        <v>3.906691</v>
+        <v>7.292674</v>
       </c>
       <c r="I19">
-        <v>0.1555220331581923</v>
+        <v>0.2804627322763945</v>
       </c>
       <c r="J19">
-        <v>0.1789859959754975</v>
+        <v>0.3160417171180145</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1323796666666666</v>
+        <v>12.015213</v>
       </c>
       <c r="N19">
-        <v>0.397139</v>
+        <v>36.045639</v>
       </c>
       <c r="O19">
-        <v>0.001538279759615545</v>
+        <v>0.2096145064786482</v>
       </c>
       <c r="P19">
-        <v>0.001937447037358482</v>
+        <v>0.2843011610923331</v>
       </c>
       <c r="Q19">
-        <v>0.1723888174498889</v>
+        <v>29.207677149854</v>
       </c>
       <c r="R19">
-        <v>1.551499357049</v>
+        <v>262.869094348686</v>
       </c>
       <c r="S19">
-        <v>0.000239236395781505</v>
+        <v>0.05878905721176968</v>
       </c>
       <c r="T19">
-        <v>0.0003467758876313847</v>
+        <v>0.0898510271302662</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,122 +1650,122 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.2308325</v>
+        <v>2.430891333333333</v>
       </c>
       <c r="H20">
-        <v>2.461665</v>
+        <v>7.292674</v>
       </c>
       <c r="I20">
-        <v>0.1469951728026461</v>
+        <v>0.2804627322763945</v>
       </c>
       <c r="J20">
-        <v>0.1127817792047088</v>
+        <v>0.3160417171180145</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>33.6320075</v>
+        <v>0.1305583333333333</v>
       </c>
       <c r="N20">
-        <v>67.264015</v>
+        <v>0.391675</v>
       </c>
       <c r="O20">
-        <v>0.3908110491225105</v>
+        <v>0.002277689176907768</v>
       </c>
       <c r="P20">
-        <v>0.3281482467916435</v>
+        <v>0.003089240761436898</v>
       </c>
       <c r="Q20">
-        <v>41.39536787124375</v>
+        <v>0.3173731209944444</v>
       </c>
       <c r="R20">
-        <v>165.581471484975</v>
+        <v>2.85635808895</v>
       </c>
       <c r="S20">
-        <v>0.05744733769894684</v>
+        <v>0.0006388069298319247</v>
       </c>
       <c r="T20">
-        <v>0.03700914311606743</v>
+        <v>0.0009763289548354799</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
       <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.430891333333333</v>
+      </c>
+      <c r="H21">
+        <v>7.292674</v>
+      </c>
+      <c r="I21">
+        <v>0.2804627322763945</v>
+      </c>
+      <c r="J21">
+        <v>0.3160417171180145</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.2308325</v>
-      </c>
-      <c r="H21">
-        <v>2.461665</v>
-      </c>
-      <c r="I21">
-        <v>0.1469951728026461</v>
-      </c>
-      <c r="J21">
-        <v>0.1127817792047088</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>12.015213</v>
+        <v>14.373679</v>
       </c>
       <c r="N21">
-        <v>36.045639</v>
+        <v>28.747358</v>
       </c>
       <c r="O21">
-        <v>0.1396193194224409</v>
+        <v>0.2507597351680332</v>
       </c>
       <c r="P21">
-        <v>0.1758490515669409</v>
+        <v>0.2267377548151379</v>
       </c>
       <c r="Q21">
-        <v>14.7887146548225</v>
+        <v>34.94085170921534</v>
       </c>
       <c r="R21">
-        <v>88.73228792893501</v>
+        <v>209.645110255292</v>
       </c>
       <c r="S21">
-        <v>0.02052336598508954</v>
+        <v>0.0703287604701317</v>
       </c>
       <c r="T21">
-        <v>0.01983256890718018</v>
+        <v>0.07165858936725952</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.190724333333333</v>
+      </c>
+      <c r="H22">
+        <v>3.572173</v>
+      </c>
+      <c r="I22">
+        <v>0.1373791560878719</v>
+      </c>
+      <c r="J22">
+        <v>0.154806822403224</v>
+      </c>
+      <c r="K22">
         <v>2</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1.2308325</v>
-      </c>
-      <c r="H22">
-        <v>2.461665</v>
-      </c>
-      <c r="I22">
-        <v>0.1469951728026461</v>
-      </c>
-      <c r="J22">
-        <v>0.1127817792047088</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.122567</v>
+        <v>30.801072</v>
       </c>
       <c r="N22">
-        <v>0.367701</v>
+        <v>61.602144</v>
       </c>
       <c r="O22">
-        <v>0.001424254495001488</v>
+        <v>0.5373480691764108</v>
       </c>
       <c r="P22">
-        <v>0.001793833426290924</v>
+        <v>0.485871843331092</v>
       </c>
       <c r="Q22">
-        <v>0.1508594470275</v>
+        <v>36.67558592315199</v>
       </c>
       <c r="R22">
-        <v>0.905156682165</v>
+        <v>220.053515538912</v>
       </c>
       <c r="S22">
-        <v>0.0002093585356076891</v>
+        <v>0.07382042426890272</v>
       </c>
       <c r="T22">
-        <v>0.0002023117254139692</v>
+        <v>0.07521627616128343</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.2308325</v>
+        <v>1.190724333333333</v>
       </c>
       <c r="H23">
-        <v>2.461665</v>
+        <v>3.572173</v>
       </c>
       <c r="I23">
-        <v>0.1469951728026461</v>
+        <v>0.1373791560878719</v>
       </c>
       <c r="J23">
-        <v>0.1127817792047088</v>
+        <v>0.154806822403224</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.558276</v>
+        <v>12.015213</v>
       </c>
       <c r="N23">
-        <v>39.116552</v>
+        <v>36.045639</v>
       </c>
       <c r="O23">
-        <v>0.2272713088146052</v>
+        <v>0.2096145064786482</v>
       </c>
       <c r="P23">
-        <v>0.1908305348607893</v>
+        <v>0.2843011610923331</v>
       </c>
       <c r="Q23">
-        <v>24.07296174477</v>
+        <v>14.306806489283</v>
       </c>
       <c r="R23">
-        <v>96.29184697907999</v>
+        <v>128.761258403547</v>
       </c>
       <c r="S23">
-        <v>0.03340778531228643</v>
+        <v>0.02879666400381245</v>
       </c>
       <c r="T23">
-        <v>0.02152220724818603</v>
+        <v>0.04401175935425119</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,861 +1898,117 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.2308325</v>
+        <v>1.190724333333333</v>
       </c>
       <c r="H24">
-        <v>2.461665</v>
+        <v>3.572173</v>
       </c>
       <c r="I24">
-        <v>0.1469951728026461</v>
+        <v>0.1373791560878719</v>
       </c>
       <c r="J24">
-        <v>0.1127817792047088</v>
+        <v>0.154806822403224</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>20.59650833333333</v>
+        <v>0.1305583333333333</v>
       </c>
       <c r="N24">
-        <v>61.789525</v>
+        <v>0.391675</v>
       </c>
       <c r="O24">
-        <v>0.2393357883858265</v>
+        <v>0.002277689176907768</v>
       </c>
       <c r="P24">
-        <v>0.3014408863169769</v>
+        <v>0.003089240761436898</v>
       </c>
       <c r="Q24">
-        <v>25.3508518431875</v>
+        <v>0.1554589844194444</v>
       </c>
       <c r="R24">
-        <v>152.105111059125</v>
+        <v>1.399130859775</v>
       </c>
       <c r="S24">
-        <v>0.0351812055716321</v>
+        <v>0.0003129070169540686</v>
       </c>
       <c r="T24">
-        <v>0.033997039483873</v>
+        <v>0.0004782355459165624</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.190724333333333</v>
+      </c>
+      <c r="H25">
+        <v>3.572173</v>
+      </c>
+      <c r="I25">
+        <v>0.1373791560878719</v>
+      </c>
+      <c r="J25">
+        <v>0.154806822403224</v>
+      </c>
+      <c r="K25">
         <v>2</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1.2308325</v>
-      </c>
-      <c r="H25">
-        <v>2.461665</v>
-      </c>
-      <c r="I25">
-        <v>0.1469951728026461</v>
-      </c>
-      <c r="J25">
-        <v>0.1127817792047088</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1323796666666666</v>
+        <v>14.373679</v>
       </c>
       <c r="N25">
-        <v>0.397139</v>
+        <v>28.747358</v>
       </c>
       <c r="O25">
-        <v>0.001538279759615545</v>
+        <v>0.2507597351680332</v>
       </c>
       <c r="P25">
-        <v>0.001937447037358482</v>
+        <v>0.2267377548151379</v>
       </c>
       <c r="Q25">
-        <v>0.1629371960725</v>
+        <v>17.11508934482233</v>
       </c>
       <c r="R25">
-        <v>0.977623176435</v>
+        <v>102.690536068934</v>
       </c>
       <c r="S25">
-        <v>0.0002261196990835</v>
+        <v>0.03444916079820266</v>
       </c>
       <c r="T25">
-        <v>0.0002185087239881815</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1.278373333333333</v>
-      </c>
-      <c r="H26">
-        <v>3.83512</v>
-      </c>
-      <c r="I26">
-        <v>0.1526728527558608</v>
-      </c>
-      <c r="J26">
-        <v>0.175706953246507</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>33.6320075</v>
-      </c>
-      <c r="N26">
-        <v>67.264015</v>
-      </c>
-      <c r="O26">
-        <v>0.3908110491225105</v>
-      </c>
-      <c r="P26">
-        <v>0.3281482467916435</v>
-      </c>
-      <c r="Q26">
-        <v>42.99426153446667</v>
-      </c>
-      <c r="R26">
-        <v>257.9655692068</v>
-      </c>
-      <c r="S26">
-        <v>0.05966623775804452</v>
-      </c>
-      <c r="T26">
-        <v>0.05765792865694256</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1.278373333333333</v>
-      </c>
-      <c r="H27">
-        <v>3.83512</v>
-      </c>
-      <c r="I27">
-        <v>0.1526728527558608</v>
-      </c>
-      <c r="J27">
-        <v>0.175706953246507</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>12.015213</v>
-      </c>
-      <c r="N27">
-        <v>36.045639</v>
-      </c>
-      <c r="O27">
-        <v>0.1396193194224409</v>
-      </c>
-      <c r="P27">
-        <v>0.1758490515669409</v>
-      </c>
-      <c r="Q27">
-        <v>15.35992789352</v>
-      </c>
-      <c r="R27">
-        <v>138.23935104168</v>
-      </c>
-      <c r="S27">
-        <v>0.02131607979605581</v>
-      </c>
-      <c r="T27">
-        <v>0.0308979010821151</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1.278373333333333</v>
-      </c>
-      <c r="H28">
-        <v>3.83512</v>
-      </c>
-      <c r="I28">
-        <v>0.1526728527558608</v>
-      </c>
-      <c r="J28">
-        <v>0.175706953246507</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M28">
-        <v>0.122567</v>
-      </c>
-      <c r="N28">
-        <v>0.367701</v>
-      </c>
-      <c r="O28">
-        <v>0.001424254495001488</v>
-      </c>
-      <c r="P28">
-        <v>0.001793833426290924</v>
-      </c>
-      <c r="Q28">
-        <v>0.1566863843466667</v>
-      </c>
-      <c r="R28">
-        <v>1.41017745912</v>
-      </c>
-      <c r="S28">
-        <v>0.000217444996802235</v>
-      </c>
-      <c r="T28">
-        <v>0.0003151890059653209</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>1.278373333333333</v>
-      </c>
-      <c r="H29">
-        <v>3.83512</v>
-      </c>
-      <c r="I29">
-        <v>0.1526728527558608</v>
-      </c>
-      <c r="J29">
-        <v>0.175706953246507</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>19.558276</v>
-      </c>
-      <c r="N29">
-        <v>39.116552</v>
-      </c>
-      <c r="O29">
-        <v>0.2272713088146052</v>
-      </c>
-      <c r="P29">
-        <v>0.1908305348607893</v>
-      </c>
-      <c r="Q29">
-        <v>25.00277848437333</v>
-      </c>
-      <c r="R29">
-        <v>150.01667090624</v>
-      </c>
-      <c r="S29">
-        <v>0.03469815906628398</v>
-      </c>
-      <c r="T29">
-        <v>0.03353025186679064</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1.278373333333333</v>
-      </c>
-      <c r="H30">
-        <v>3.83512</v>
-      </c>
-      <c r="I30">
-        <v>0.1526728527558608</v>
-      </c>
-      <c r="J30">
-        <v>0.175706953246507</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>20.59650833333333</v>
-      </c>
-      <c r="N30">
-        <v>61.789525</v>
-      </c>
-      <c r="O30">
-        <v>0.2393357883858265</v>
-      </c>
-      <c r="P30">
-        <v>0.3014408863169769</v>
-      </c>
-      <c r="Q30">
-        <v>26.33002701311111</v>
-      </c>
-      <c r="R30">
-        <v>236.970243118</v>
-      </c>
-      <c r="S30">
-        <v>0.03654007757943714</v>
-      </c>
-      <c r="T30">
-        <v>0.0529652597186827</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>1.278373333333333</v>
-      </c>
-      <c r="H31">
-        <v>3.83512</v>
-      </c>
-      <c r="I31">
-        <v>0.1526728527558608</v>
-      </c>
-      <c r="J31">
-        <v>0.175706953246507</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M31">
-        <v>0.1323796666666666</v>
-      </c>
-      <c r="N31">
-        <v>0.397139</v>
-      </c>
-      <c r="O31">
-        <v>0.001538279759615545</v>
-      </c>
-      <c r="P31">
-        <v>0.001937447037358482</v>
-      </c>
-      <c r="Q31">
-        <v>0.1692306357422222</v>
-      </c>
-      <c r="R31">
-        <v>1.52307572168</v>
-      </c>
-      <c r="S31">
-        <v>0.0002348535592371051</v>
-      </c>
-      <c r="T31">
-        <v>0.0003404229160107303</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1.411814333333333</v>
-      </c>
-      <c r="H32">
-        <v>4.235443</v>
-      </c>
-      <c r="I32">
-        <v>0.1686093695881332</v>
-      </c>
-      <c r="J32">
-        <v>0.1940478486147097</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>33.6320075</v>
-      </c>
-      <c r="N32">
-        <v>67.264015</v>
-      </c>
-      <c r="O32">
-        <v>0.3908110491225105</v>
-      </c>
-      <c r="P32">
-        <v>0.3281482467916435</v>
-      </c>
-      <c r="Q32">
-        <v>47.48215024727416</v>
-      </c>
-      <c r="R32">
-        <v>284.892901483645</v>
-      </c>
-      <c r="S32">
-        <v>0.06589440462062343</v>
-      </c>
-      <c r="T32">
-        <v>0.06367646131660724</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1.411814333333333</v>
-      </c>
-      <c r="H33">
-        <v>4.235443</v>
-      </c>
-      <c r="I33">
-        <v>0.1686093695881332</v>
-      </c>
-      <c r="J33">
-        <v>0.1940478486147097</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>12.015213</v>
-      </c>
-      <c r="N33">
-        <v>36.045639</v>
-      </c>
-      <c r="O33">
-        <v>0.1396193194224409</v>
-      </c>
-      <c r="P33">
-        <v>0.1758490515669409</v>
-      </c>
-      <c r="Q33">
-        <v>16.963249931453</v>
-      </c>
-      <c r="R33">
-        <v>152.669249383077</v>
-      </c>
-      <c r="S33">
-        <v>0.02354112543014195</v>
-      </c>
-      <c r="T33">
-        <v>0.03412313013750204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>1.411814333333333</v>
-      </c>
-      <c r="H34">
-        <v>4.235443</v>
-      </c>
-      <c r="I34">
-        <v>0.1686093695881332</v>
-      </c>
-      <c r="J34">
-        <v>0.1940478486147097</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M34">
-        <v>0.122567</v>
-      </c>
-      <c r="N34">
-        <v>0.367701</v>
-      </c>
-      <c r="O34">
-        <v>0.001424254495001488</v>
-      </c>
-      <c r="P34">
-        <v>0.001793833426290924</v>
-      </c>
-      <c r="Q34">
-        <v>0.1730418473936667</v>
-      </c>
-      <c r="R34">
-        <v>1.557376626543</v>
-      </c>
-      <c r="S34">
-        <v>0.0002401426525352658</v>
-      </c>
-      <c r="T34">
-        <v>0.0003480895171449072</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>1.411814333333333</v>
-      </c>
-      <c r="H35">
-        <v>4.235443</v>
-      </c>
-      <c r="I35">
-        <v>0.1686093695881332</v>
-      </c>
-      <c r="J35">
-        <v>0.1940478486147097</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>19.558276</v>
-      </c>
-      <c r="N35">
-        <v>39.116552</v>
-      </c>
-      <c r="O35">
-        <v>0.2272713088146052</v>
-      </c>
-      <c r="P35">
-        <v>0.1908305348607893</v>
-      </c>
-      <c r="Q35">
-        <v>27.61265439208933</v>
-      </c>
-      <c r="R35">
-        <v>165.675926352536</v>
-      </c>
-      <c r="S35">
-        <v>0.03832007210470051</v>
-      </c>
-      <c r="T35">
-        <v>0.03703025473973053</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>1.411814333333333</v>
-      </c>
-      <c r="H36">
-        <v>4.235443</v>
-      </c>
-      <c r="I36">
-        <v>0.1686093695881332</v>
-      </c>
-      <c r="J36">
-        <v>0.1940478486147097</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>20.59650833333333</v>
-      </c>
-      <c r="N36">
-        <v>61.789525</v>
-      </c>
-      <c r="O36">
-        <v>0.2393357883858265</v>
-      </c>
-      <c r="P36">
-        <v>0.3014408863169769</v>
-      </c>
-      <c r="Q36">
-        <v>29.07844568161944</v>
-      </c>
-      <c r="R36">
-        <v>261.706011134575</v>
-      </c>
-      <c r="S36">
-        <v>0.04035425639961304</v>
-      </c>
-      <c r="T36">
-        <v>0.05849395547432065</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>1.411814333333333</v>
-      </c>
-      <c r="H37">
-        <v>4.235443</v>
-      </c>
-      <c r="I37">
-        <v>0.1686093695881332</v>
-      </c>
-      <c r="J37">
-        <v>0.1940478486147097</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M37">
-        <v>0.1323796666666666</v>
-      </c>
-      <c r="N37">
-        <v>0.397139</v>
-      </c>
-      <c r="O37">
-        <v>0.001538279759615545</v>
-      </c>
-      <c r="P37">
-        <v>0.001937447037358482</v>
-      </c>
-      <c r="Q37">
-        <v>0.1868955108418889</v>
-      </c>
-      <c r="R37">
-        <v>1.682059597577</v>
-      </c>
-      <c r="S37">
-        <v>0.0002593683805189622</v>
-      </c>
-      <c r="T37">
-        <v>0.0003759574294043565</v>
+        <v>0.03510055134177279</v>
       </c>
     </row>
   </sheetData>
